--- a/SessionOrganization/res/image/test4_data.xlsx
+++ b/SessionOrganization/res/image/test4_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\awous\PycharmProjects\ProjectCalculs\MyProjectCalculs\SessionOrganization\res\image\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64024563-CA06-40F1-8F5E-CE7FFD83B2FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EBF968D-95A3-4438-990C-6033EBF7FE54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="3060" yWindow="648" windowWidth="17280" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="test4_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Designation</t>
   </si>
@@ -53,27 +53,6 @@
   </si>
   <si>
     <t>Test7</t>
-  </si>
-  <si>
-    <t>Test8</t>
-  </si>
-  <si>
-    <t>Test9</t>
-  </si>
-  <si>
-    <t>Test10</t>
-  </si>
-  <si>
-    <t>Test11</t>
-  </si>
-  <si>
-    <t>Test12</t>
-  </si>
-  <si>
-    <t>Test13</t>
-  </si>
-  <si>
-    <t>Test14</t>
   </si>
 </sst>
 </file>
@@ -914,9 +893,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -939,13 +920,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -959,7 +940,7 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -967,13 +948,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -981,13 +962,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>90</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -998,10 +979,10 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1015,7 +996,7 @@
         <v>90</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1026,108 +1007,10 @@
         <v>100</v>
       </c>
       <c r="C8">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9">
-        <v>90</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>100</v>
-      </c>
-      <c r="C10">
-        <v>90</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
-      <c r="C11">
-        <v>90</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>100</v>
-      </c>
-      <c r="C12">
-        <v>90</v>
-      </c>
-      <c r="D12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>100</v>
-      </c>
-      <c r="C13">
-        <v>90</v>
-      </c>
-      <c r="D13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>100</v>
-      </c>
-      <c r="C14">
-        <v>90</v>
-      </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>100</v>
-      </c>
-      <c r="C15">
-        <v>90</v>
-      </c>
-      <c r="D15">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
